--- a/Finalize logic tree/Toyota_Camry_No heat from hvac.xlsx
+++ b/Finalize logic tree/Toyota_Camry_No heat from hvac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Documents\Shreyash_files\Projects\Amberflux RaH Project\Database\Finalize logic tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3A1795-1A6F-4BD8-8B5C-94C9191F4C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E3521E-BDFD-4F8B-9EC3-EBC8F33F152C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{AFBD452C-0F63-4DE0-BE86-B2E9C618FD7F}"/>
   </bookViews>
@@ -118,7 +118,7 @@
     <t>Problem:After you have driven for awhile does the problem seem to go away?</t>
   </si>
   <si>
-    <t xml:space="preserve">Problem:Problem:After you have driven for awhile does the problem seem to go away?
+    <t xml:space="preserve">Problem:After you have driven for awhile does the problem seem to go away?
 </t>
   </si>
 </sst>
@@ -476,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F66D546-BB6F-444D-8A79-780F56469EAD}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,7 +548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
